--- a/inst/extdata/echogo_demo_results/evaluation/rarefaction_by_origin_exploratory.xlsx
+++ b/inst/extdata/echogo_demo_results/evaluation/rarefaction_by_origin_exploratory.xlsx
@@ -406,13 +406,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>73.627</v>
+        <v>511.388</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>793</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -423,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>102.833</v>
+        <v>749.376</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>627</v>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>825</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -440,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -457,13 +457,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>80.648</v>
+        <v>155.026</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>122.087</v>
+        <v>206.106</v>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -491,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="D7" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -508,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>45.758</v>
+        <v>177.69</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -525,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>76.072</v>
+        <v>228.56</v>
       </c>
       <c r="C9" t="n">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="C10" t="n">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>200.006</v>
+        <v>833.754</v>
       </c>
       <c r="C11" t="n">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="D11" t="n">
-        <v>310</v>
+        <v>1230</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>302.976</v>
+        <v>1186.34</v>
       </c>
       <c r="C12" t="n">
-        <v>231</v>
+        <v>1020</v>
       </c>
       <c r="D12" t="n">
-        <v>351</v>
+        <v>1280</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -593,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>364</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="n">
-        <v>364</v>
+        <v>1305</v>
       </c>
       <c r="D13" t="n">
-        <v>364</v>
+        <v>1305</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
